--- a/Breast_Cancer_Wisconsin/outputs/train_40_test_60/bcw_train_40_test_60_depth_accuracy.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_40_test_60/bcw_train_40_test_60_depth_accuracy.xlsx
@@ -461,10 +461,10 @@
         <v>0.9122807017543859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.9327485380116959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.9327485380116959</v>
       </c>
       <c r="E2" t="n">
         <v>0.9122807017543859</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_40_test_60/bcw_train_40_test_60_depth_accuracy.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_40_test_60/bcw_train_40_test_60_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9122807017543859</v>
+        <v>91.23</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9327485380116959</v>
+        <v>93.27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9327485380116959</v>
+        <v>93.27</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9122807017543859</v>
+        <v>91.23</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9122807017543859</v>
+        <v>91.23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9122807017543859</v>
+        <v>91.23</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9122807017543859</v>
+        <v>91.23</v>
       </c>
     </row>
   </sheetData>
